--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Vietcom.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -256,6 +256,27 @@
   </si>
   <si>
     <t>LE.1.00.---01.181025</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180615</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
   </si>
 </sst>
 </file>
@@ -707,30 +728,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -748,6 +745,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,39 +1112,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1168,58 +1189,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1244,23 +1265,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,7 +1307,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1317,7 +1338,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1346,7 +1367,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1396,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1404,7 +1425,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +1454,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1462,7 +1483,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1493,7 +1514,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1522,7 +1543,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1551,7 +1572,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1580,7 +1601,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3296,6 +3317,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3307,13 +3335,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3357,39 +3378,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3434,58 +3455,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3510,23 +3531,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3552,7 +3573,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3583,7 +3604,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3612,7 +3633,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3641,7 +3662,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3670,7 +3691,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3699,7 +3720,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3728,7 +3749,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3759,7 +3780,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3788,7 +3809,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3817,7 +3838,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3846,7 +3867,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5562,13 +5583,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5580,6 +5594,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5623,39 +5644,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5700,58 +5721,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5776,23 +5797,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5818,7 +5839,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5849,7 +5870,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5878,7 +5899,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5907,7 +5928,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5936,7 +5957,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5965,7 +5986,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5994,7 +6015,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6025,7 +6046,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6054,7 +6075,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6083,7 +6104,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6112,7 +6133,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7828,13 +7849,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7846,6 +7860,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7889,39 +7910,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7966,58 +7987,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8042,23 +8063,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8084,7 +8105,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8115,7 +8136,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8144,7 +8165,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8173,7 +8194,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8202,7 +8223,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8231,7 +8252,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8260,7 +8281,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8291,7 +8312,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8320,7 +8341,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8349,7 +8370,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8378,7 +8399,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10094,13 +10115,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10112,6 +10126,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10155,39 +10176,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10232,58 +10253,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10308,23 +10329,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10350,7 +10371,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10381,7 +10402,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10410,7 +10431,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10439,7 +10460,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10468,7 +10489,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10497,7 +10518,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10526,7 +10547,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10557,7 +10578,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10586,7 +10607,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10615,7 +10636,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10644,7 +10665,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12360,13 +12381,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12378,6 +12392,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12388,8 +12409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12421,41 +12442,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12500,58 +12521,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12576,23 +12597,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12626,7 +12647,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12661,15 +12682,25 @@
         <v>65</v>
       </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>70</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12702,15 +12733,25 @@
         <v>65</v>
       </c>
       <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="M8" s="66" t="s">
+        <v>70</v>
+      </c>
       <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
+      <c r="O8" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12743,15 +12784,25 @@
         <v>65</v>
       </c>
       <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="M9" s="66" t="s">
+        <v>70</v>
+      </c>
       <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
+      <c r="O9" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12788,7 +12839,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12806,26 +12857,42 @@
         <v>44</v>
       </c>
       <c r="E11" s="38">
-        <v>867859039933960</v>
+        <v>868183038483330</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="77"/>
-      <c r="I11" s="63"/>
+      <c r="I11" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J11" s="64"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="67"/>
+      <c r="K11" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12862,7 +12929,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12901,7 +12968,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12926,19 +12993,35 @@
         <v>64</v>
       </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="K14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12964,7 +13047,9 @@
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
@@ -12975,7 +13060,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13012,7 +13097,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13037,15 +13122,32 @@
         <v>64</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="K17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="69"/>
@@ -13078,13 +13180,25 @@
       <c r="K18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="L18" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
+      <c r="O18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -13149,9 +13263,13 @@
         <v>64</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65" t="s">
+        <v>65</v>
+      </c>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
       <c r="N20" s="1"/>
@@ -13166,7 +13284,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13643,7 +13761,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13675,7 +13793,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13707,7 +13825,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14772,13 +14890,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14790,6 +14901,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14833,39 +14951,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14910,58 +15028,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14986,23 +15104,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15028,7 +15146,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15059,7 +15177,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15088,7 +15206,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15117,7 +15235,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15146,7 +15264,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15175,7 +15293,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15204,7 +15322,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15235,7 +15353,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15264,7 +15382,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15293,7 +15411,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15322,7 +15440,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17038,13 +17156,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17056,6 +17167,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17099,39 +17217,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17176,58 +17294,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17252,23 +17370,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17294,7 +17412,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17325,7 +17443,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17354,7 +17472,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17383,7 +17501,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17412,7 +17530,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17441,7 +17559,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17470,7 +17588,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17501,7 +17619,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17530,7 +17648,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17559,7 +17677,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17588,7 +17706,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19304,13 +19422,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19322,6 +19433,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19365,39 +19483,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19442,58 +19560,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19518,23 +19636,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19560,7 +19678,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19591,7 +19709,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19620,7 +19738,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19649,7 +19767,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19678,7 +19796,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19707,7 +19825,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19736,7 +19854,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19767,7 +19885,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19796,7 +19914,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19825,7 +19943,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19854,7 +19972,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21085,6 +21203,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21096,13 +21221,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Vietcom.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Thay connecotr, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NCFW,LK</t>
   </si>
 </sst>
 </file>
@@ -728,6 +740,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,30 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,39 +1124,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1189,58 +1201,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1265,23 +1277,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1307,7 +1319,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1338,7 +1350,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1367,7 +1379,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1408,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1425,7 +1437,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1466,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1495,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1514,7 +1526,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1543,7 +1555,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1572,7 +1584,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1613,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3317,13 +3329,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3335,6 +3340,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3378,39 +3390,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3455,58 +3467,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3531,23 +3543,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3573,7 +3585,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3604,7 +3616,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3633,7 +3645,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3674,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3691,7 +3703,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3732,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3749,7 +3761,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3780,7 +3792,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3809,7 +3821,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3838,7 +3850,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3867,7 +3879,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5583,6 +5595,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5594,13 +5613,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5644,39 +5656,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5721,58 +5733,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5797,23 +5809,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,7 +5851,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5870,7 +5882,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5899,7 +5911,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5928,7 +5940,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5957,7 +5969,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5986,7 +5998,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6015,7 +6027,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6046,7 +6058,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6075,7 +6087,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6104,7 +6116,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6133,7 +6145,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7849,6 +7861,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7860,13 +7879,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7910,39 +7922,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7987,58 +7999,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8063,23 +8075,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8105,7 +8117,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8136,7 +8148,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8165,7 +8177,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +8206,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8223,7 +8235,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8252,7 +8264,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8281,7 +8293,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8312,7 +8324,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8341,7 +8353,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8370,7 +8382,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8399,7 +8411,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10115,6 +10127,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10126,13 +10145,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10176,39 +10188,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10253,58 +10265,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10329,23 +10341,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10371,7 +10383,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10402,7 +10414,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10431,7 +10443,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10460,7 +10472,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10489,7 +10501,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10518,7 +10530,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10547,7 +10559,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10578,7 +10590,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10607,7 +10619,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10636,7 +10648,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10665,7 +10677,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12381,6 +12393,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12392,13 +12411,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12409,8 +12421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12442,41 +12454,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12521,58 +12533,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12597,23 +12609,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12647,7 +12659,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12700,7 +12712,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12751,7 +12763,7 @@
       </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12802,7 +12814,7 @@
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12839,7 +12851,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12892,7 +12904,7 @@
       </c>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12917,19 +12929,35 @@
         <v>64</v>
       </c>
       <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12968,7 +12996,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13021,7 +13049,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13046,21 +13074,37 @@
         <v>64</v>
       </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="K15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13085,19 +13129,35 @@
         <v>64</v>
       </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
+      <c r="I16" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="K16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13224,16 +13284,30 @@
         <v>64</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
+      <c r="I19" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="65" t="s">
+        <v>65</v>
+      </c>
       <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
+      <c r="M19" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
       <c r="U19" s="68" t="s">
@@ -13271,12 +13345,22 @@
         <v>65</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
+      <c r="M20" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -13284,7 +13368,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13356,7 +13440,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13633,7 +13717,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13761,7 +13845,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13793,7 +13877,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13825,7 +13909,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14890,6 +14974,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14901,13 +14992,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14951,39 +15035,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15028,58 +15112,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15104,23 +15188,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15146,7 +15230,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15177,7 +15261,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15206,7 +15290,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15235,7 +15319,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15264,7 +15348,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15293,7 +15377,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15322,7 +15406,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15353,7 +15437,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15382,7 +15466,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15411,7 +15495,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15440,7 +15524,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17156,6 +17240,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17167,13 +17258,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17217,39 +17301,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17294,58 +17378,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17370,23 +17454,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17412,7 +17496,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17443,7 +17527,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17472,7 +17556,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17501,7 +17585,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17530,7 +17614,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17559,7 +17643,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17588,7 +17672,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17619,7 +17703,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17648,7 +17732,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17677,7 +17761,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17706,7 +17790,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19422,6 +19506,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19433,13 +19524,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19483,39 +19567,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19560,58 +19644,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19636,23 +19720,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19678,7 +19762,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19709,7 +19793,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19738,7 +19822,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19767,7 +19851,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19796,7 +19880,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19825,7 +19909,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19854,7 +19938,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19885,7 +19969,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19914,7 +19998,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19943,7 +20027,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19972,7 +20056,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21203,13 +21287,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21221,6 +21298,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Vietcom.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>NCFW,LK</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180925</t>
+  </si>
+  <si>
+    <t>Khách báo lỗi ACC</t>
   </si>
 </sst>
 </file>
@@ -740,30 +746,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,6 +763,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1124,39 +1130,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1201,58 +1207,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1277,23 +1283,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,7 +1325,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1350,7 +1356,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1379,7 +1385,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1408,7 +1414,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1437,7 +1443,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1466,7 +1472,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1495,7 +1501,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1526,7 +1532,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1555,7 +1561,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1584,7 +1590,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1613,7 +1619,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3329,6 +3335,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3340,13 +3353,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3390,39 +3396,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3467,58 +3473,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3543,23 +3549,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3585,7 +3591,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3616,7 +3622,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3645,7 +3651,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3674,7 +3680,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3703,7 +3709,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3732,7 +3738,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3761,7 +3767,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3792,7 +3798,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3821,7 +3827,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3850,7 +3856,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3879,7 +3885,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5595,13 +5601,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5613,6 +5612,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5656,39 +5662,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5733,58 +5739,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5809,23 +5815,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5851,7 +5857,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5882,7 +5888,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5911,7 +5917,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5940,7 +5946,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5969,7 +5975,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5998,7 +6004,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6027,7 +6033,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6058,7 +6064,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6087,7 +6093,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6116,7 +6122,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6145,7 +6151,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7861,13 +7867,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7879,6 +7878,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7922,39 +7928,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7999,58 +8005,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8075,23 +8081,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8117,7 +8123,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8148,7 +8154,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8177,7 +8183,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8206,7 +8212,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8235,7 +8241,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8264,7 +8270,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8293,7 +8299,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8324,7 +8330,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8353,7 +8359,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8382,7 +8388,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8411,7 +8417,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10127,13 +10133,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10145,6 +10144,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10188,39 +10194,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10265,58 +10271,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10341,23 +10347,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10383,7 +10389,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10414,7 +10420,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10443,7 +10449,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10472,7 +10478,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10501,7 +10507,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10530,7 +10536,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10559,7 +10565,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10590,7 +10596,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10619,7 +10625,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10648,7 +10654,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10677,7 +10683,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12393,13 +12399,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12411,6 +12410,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12421,8 +12427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12454,41 +12460,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12533,58 +12539,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12609,23 +12615,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12635,7 +12641,9 @@
       <c r="B6" s="61">
         <v>44923</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44899</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -12647,19 +12655,33 @@
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
+      <c r="K6" s="65" t="s">
+        <v>65</v>
+      </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>70</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12674,7 +12696,9 @@
       <c r="B7" s="61">
         <v>44923</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44899</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -12712,7 +12736,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12725,7 +12749,9 @@
       <c r="B8" s="61">
         <v>44923</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44899</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -12763,7 +12789,7 @@
       </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12776,7 +12802,9 @@
       <c r="B9" s="61">
         <v>44923</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44899</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -12814,7 +12842,7 @@
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12827,7 +12855,9 @@
       <c r="B10" s="61">
         <v>44923</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44899</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -12839,19 +12869,37 @@
         <v>64</v>
       </c>
       <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="67"/>
+      <c r="I10" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12864,7 +12912,9 @@
       <c r="B11" s="61">
         <v>44923</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44899</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
@@ -12904,7 +12954,7 @@
       </c>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12917,7 +12967,9 @@
       <c r="B12" s="61">
         <v>44923</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="61">
+        <v>44899</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -12957,7 +13009,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12972,7 +13024,9 @@
       <c r="B13" s="61">
         <v>44923</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="61">
+        <v>44899</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
@@ -12984,19 +13038,35 @@
         <v>64</v>
       </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13009,7 +13079,9 @@
       <c r="B14" s="61">
         <v>44923</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="61">
+        <v>44899</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>44</v>
       </c>
@@ -13049,7 +13121,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13062,7 +13134,9 @@
       <c r="B15" s="61">
         <v>44923</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="61">
+        <v>44899</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>44</v>
       </c>
@@ -13104,7 +13178,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13117,7 +13191,9 @@
       <c r="B16" s="61">
         <v>44923</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="61">
+        <v>44899</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>44</v>
       </c>
@@ -13157,7 +13233,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13170,7 +13246,9 @@
       <c r="B17" s="61">
         <v>44923</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="61">
+        <v>44899</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>44</v>
       </c>
@@ -13221,7 +13299,9 @@
       <c r="B18" s="61">
         <v>44923</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="61">
+        <v>44899</v>
+      </c>
       <c r="D18" s="37" t="s">
         <v>44</v>
       </c>
@@ -13272,7 +13352,9 @@
       <c r="B19" s="61">
         <v>44923</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="61">
+        <v>44899</v>
+      </c>
       <c r="D19" s="37" t="s">
         <v>44</v>
       </c>
@@ -13325,7 +13407,9 @@
       <c r="B20" s="61">
         <v>44923</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="61">
+        <v>44899</v>
+      </c>
       <c r="D20" s="37" t="s">
         <v>44</v>
       </c>
@@ -13368,7 +13452,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13379,7 +13463,9 @@
       <c r="B21" s="61">
         <v>44923</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="61">
+        <v>44899</v>
+      </c>
       <c r="D21" s="37" t="s">
         <v>44</v>
       </c>
@@ -13391,16 +13477,32 @@
         <v>64</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="65" t="s">
+        <v>65</v>
+      </c>
       <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="M21" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
+      <c r="O21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
@@ -13440,7 +13542,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13717,7 +13819,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13845,7 +13947,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13877,7 +13979,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13909,7 +14011,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14974,13 +15076,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14992,6 +15087,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15035,39 +15137,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15112,58 +15214,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15188,23 +15290,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15230,7 +15332,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15261,7 +15363,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15290,7 +15392,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15319,7 +15421,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15348,7 +15450,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15377,7 +15479,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15406,7 +15508,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15437,7 +15539,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15466,7 +15568,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15495,7 +15597,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15524,7 +15626,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17240,13 +17342,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17258,6 +17353,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17301,39 +17403,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17378,58 +17480,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17454,23 +17556,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17496,7 +17598,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17527,7 +17629,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17556,7 +17658,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17585,7 +17687,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17614,7 +17716,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17643,7 +17745,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17672,7 +17774,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17703,7 +17805,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17732,7 +17834,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17761,7 +17863,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17790,7 +17892,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19506,13 +19608,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19524,6 +19619,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19567,39 +19669,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19644,58 +19746,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19720,23 +19822,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19762,7 +19864,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19793,7 +19895,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19822,7 +19924,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19851,7 +19953,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19880,7 +19982,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19909,7 +20011,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19938,7 +20040,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19969,7 +20071,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19998,7 +20100,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20027,7 +20129,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20056,7 +20158,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21287,6 +21389,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21298,13 +21407,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Vietcom.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Khách báo lỗi ACC</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector, hỏng led GSM</t>
+  </si>
+  <si>
+    <t>Thay connector, LED, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -746,6 +752,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,30 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,39 +1136,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1207,58 +1213,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1283,23 +1289,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1325,7 +1331,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1356,7 +1362,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1385,7 +1391,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1420,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1443,7 +1449,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1478,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1507,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1532,7 +1538,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1561,7 +1567,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1590,7 +1596,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1619,7 +1625,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3335,13 +3341,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3353,6 +3352,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3396,39 +3402,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3473,58 +3479,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3549,23 +3555,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3591,7 +3597,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3622,7 +3628,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3651,7 +3657,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3680,7 +3686,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3709,7 +3715,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3738,7 +3744,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3767,7 +3773,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3798,7 +3804,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3827,7 +3833,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3856,7 +3862,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3885,7 +3891,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5601,6 +5607,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5612,13 +5625,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5662,39 +5668,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5739,58 +5745,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5815,23 +5821,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5857,7 +5863,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5888,7 +5894,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5917,7 +5923,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5946,7 +5952,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5975,7 +5981,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6004,7 +6010,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6033,7 +6039,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6064,7 +6070,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6093,7 +6099,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6122,7 +6128,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6151,7 +6157,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7867,6 +7873,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7878,13 +7891,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7928,39 +7934,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8005,58 +8011,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8081,23 +8087,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8123,7 +8129,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8154,7 +8160,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8183,7 +8189,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8212,7 +8218,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8241,7 +8247,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8270,7 +8276,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8299,7 +8305,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8330,7 +8336,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8359,7 +8365,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8388,7 +8394,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8417,7 +8423,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10133,6 +10139,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10144,13 +10157,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10194,39 +10200,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10271,58 +10277,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10347,23 +10353,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10389,7 +10395,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10420,7 +10426,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10449,7 +10455,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10478,7 +10484,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10507,7 +10513,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10536,7 +10542,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10565,7 +10571,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10596,7 +10602,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10625,7 +10631,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10654,7 +10660,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10683,7 +10689,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12399,6 +12405,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12410,13 +12423,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12428,7 +12434,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12460,41 +12466,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12539,58 +12545,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12615,23 +12621,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12681,7 +12687,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12736,7 +12742,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12789,7 +12795,7 @@
       </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12842,7 +12848,7 @@
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12899,7 +12905,7 @@
       </c>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12954,7 +12960,7 @@
       </c>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13009,7 +13015,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13066,7 +13072,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13121,7 +13127,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13178,7 +13184,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13233,7 +13239,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13481,14 +13487,14 @@
         <v>66</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K21" s="65" t="s">
         <v>65</v>
       </c>
       <c r="L21" s="39"/>
       <c r="M21" s="39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
@@ -15076,6 +15082,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15087,13 +15100,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15137,39 +15143,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15214,58 +15220,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15290,23 +15296,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15332,7 +15338,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15363,7 +15369,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15392,7 +15398,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15421,7 +15427,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15450,7 +15456,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15479,7 +15485,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15508,7 +15514,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15539,7 +15545,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15568,7 +15574,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15597,7 +15603,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15626,7 +15632,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17342,6 +17348,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17353,13 +17366,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17403,39 +17409,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17480,58 +17486,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17556,23 +17562,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17598,7 +17604,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17629,7 +17635,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17658,7 +17664,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17687,7 +17693,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17716,7 +17722,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17745,7 +17751,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17774,7 +17780,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17805,7 +17811,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17834,7 +17840,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17863,7 +17869,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17892,7 +17898,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19608,6 +19614,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19619,13 +19632,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19669,39 +19675,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19746,58 +19752,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19822,23 +19828,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19864,7 +19870,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19895,7 +19901,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19924,7 +19930,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19953,7 +19959,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19982,7 +19988,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20011,7 +20017,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20040,7 +20046,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20071,7 +20077,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20100,7 +20106,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20129,7 +20135,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20158,7 +20164,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21389,13 +21395,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21407,6 +21406,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
